--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
+          <t>Parque Eólico El Almendro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Forestal Collicura Ltda</t>
+          <t>Bioenergias Forestales SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>160000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
+          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma</t>
+          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma SpA</t>
+          <t>Forestal Collicura Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10227</v>
+        <v>250</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Solar Gamma</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Parque Solar Gamma SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9903</v>
+        <v>10227</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Incremento de generación de vapor en planta Santa Fe</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Incremento de generación de vapor en planta Santa Fe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>120000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>02/07/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>18/06/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,21 +1547,21 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>377</v>
+        <v>130000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>17/11/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>120000</v>
+        <v>377</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>22</v>
+        <v>120000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>04/08/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cierre de Vertedero Interno (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Cierre de Vertedero Interno (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Linde Gas Chile S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Linde Gas Chile S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3517</v>
+        <v>12000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lavador de Gases Inforsa (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Lavador de Gases Inforsa (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4350</v>
+        <v>1</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
+          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>18000</v>
+        <v>4350</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>CMPC Maderas SpA.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>109</v>
+        <v>2030</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>29/07/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>04/12/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,12 +5464,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Santa Fe</t>
+          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>600000</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>04/12/2003</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,30 +5512,30 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto Ampliación Planta Santa Fe</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>600000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>30/09/2003</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,11 +5675,11 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03/06/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
+          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,11 +5771,11 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>03/06/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
+          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5915,11 +5915,11 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
+          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Tecnocerámica S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,20 +6002,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Tecnocerámica S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1010</v>
+        <v>2500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,30 +6088,30 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>47000</v>
+        <v>1010</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
+          <t>Oleoducto San Vicente-Temuco</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Forestal e Industrial Santa Fe S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1000</v>
+        <v>47000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>26/02/1996</t>
+          <t>19/05/1997</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Forestal e Industrial Santa Fe S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>850000</v>
+        <v>1000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>26/02/1996</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,43 +6232,91 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>Construcción de un Depósito de Lodos de Plantas Tratamientos de la Planta Papelera Inforsa S.A.</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>CMPC Pulp SpA</t>
         </is>
       </c>
-      <c r="F123" t="n">
+      <c r="F124" t="n">
         <v>2500</v>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>21/08/1995</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1000&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>Nacimiento</t>
         </is>

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F100" t="n">

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico El Almendro</t>
+          <t>Ampliación Planta Oxígeno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bioenergias Forestales SpA</t>
+          <t>Linde Gas Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>160000</v>
+        <v>9083</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>13/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159452036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
+          <t>Parque Eólico El Almendro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Forestal Collicura Ltda</t>
+          <t>Bioenergias Forestales SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>160000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
+          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma</t>
+          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma SpA</t>
+          <t>Forestal Collicura Ltda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10227</v>
+        <v>250</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Solar Gamma</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Parque Solar Gamma SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9903</v>
+        <v>10227</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Incremento de generación de vapor en planta Santa Fe</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Incremento de generación de vapor en planta Santa Fe</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>120000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>02/07/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>18/06/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>377</v>
+        <v>130000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>17/11/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>120000</v>
+        <v>377</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>120000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>04/08/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cierre de Vertedero Interno (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Cierre de Vertedero Interno (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Linde Gas Chile S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Linde Gas Chile S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3517</v>
+        <v>12000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lavador de Gases Inforsa (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Lavador de Gases Inforsa (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4350</v>
+        <v>1</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
+          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>18000</v>
+        <v>4350</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>29/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>109</v>
+        <v>2030</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>29/07/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>04/12/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Santa Fe</t>
+          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>600000</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>04/12/2003</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,30 +5560,30 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto Ampliación Planta Santa Fe</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>600000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>30/09/2003</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5771,11 +5771,11 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>03/06/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
+          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5819,11 +5819,11 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>03/06/2002</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
+          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
+          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Tecnocerámica S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Tecnocerámica S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1010</v>
+        <v>2500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,30 +6136,30 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>47000</v>
+        <v>1010</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
+          <t>Oleoducto San Vicente-Temuco</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Forestal e Industrial Santa Fe S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>47000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/02/1996</t>
+          <t>19/05/1997</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Forestal e Industrial Santa Fe S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>850000</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>26/02/1996</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,43 +6280,91 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>Construcción de un Depósito de Lodos de Plantas Tratamientos de la Planta Papelera Inforsa S.A.</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>CMPC Pulp SpA</t>
         </is>
       </c>
-      <c r="F124" t="n">
+      <c r="F125" t="n">
         <v>2500</v>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>21/08/1995</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1000&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>Nacimiento</t>
         </is>

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/06/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Planta Oxígeno</t>
+          <t>Nueva S/E Seccionadora Nacimiento y Reconfiguración de las Conexiones del Nodo Nacimiento 220 kV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Linde Gas Chile S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9083</v>
+        <v>6600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159452036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159853739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico El Almendro</t>
+          <t>Nueva Subestación Seccionadora Nacimiento y Reconfiguración de las Conexiones del Nodo Nacimiento 220 kV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bioenergias Forestales SpA</t>
+          <t>José Ignacio Soza De La Carrera</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>160000</v>
+        <v>6600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159836911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
+          <t>Ampliación Planta Oxígeno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Forestal Collicura Ltda</t>
+          <t>Linde Gas Chile S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>250</v>
+        <v>9083</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159452036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
+          <t>Parque Eólico El Almendro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Forestal Collicura Ltda</t>
+          <t>Bioenergias Forestales SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>160000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma</t>
+          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma SpA</t>
+          <t>Forestal Collicura Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10227</v>
+        <v>250</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Forestal Collicura Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9903</v>
+        <v>250</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Parque Solar Gamma</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Parque Solar Gamma SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>10227</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Incremento de generación de vapor en planta Santa Fe</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>Incremento de generación de vapor en planta Santa Fe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>02/07/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/06/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>706</v>
+        <v>1200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>18/06/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>706</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>130000</v>
+        <v>1350</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
+          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>120000</v>
+        <v>130000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/08/2009</t>
+          <t>17/11/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>04/08/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>80</v>
+        <v>1650</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cierre de Vertedero Interno (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Cierre de Vertedero Interno (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Linde Gas Chile S.A.</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Linde Gas Chile S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>160</v>
+        <v>12000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lavador de Gases Inforsa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>900</v>
+        <v>855</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
+          <t>Lavador de Gases Inforsa (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5147,11 +5147,11 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4350</v>
+        <v>900</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>18000</v>
+        <v>1</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>4350</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
+          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2030</v>
+        <v>18000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/07/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>29/07/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>109</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
+          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>04/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,12 +5560,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Santa Fe</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>04/12/2003</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,17 +5656,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Proyecto Ampliación Planta Santa Fe</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5675,11 +5675,11 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>30/09/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5771,11 +5771,11 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
+          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5819,11 +5819,11 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>03/06/2002</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,12 +5906,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/06/2002</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
+          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
+          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Tecnocerámica S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2500</v>
+        <v>380</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
+          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Tecnocerámica S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>47000</v>
+        <v>2500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
+          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Forestal e Industrial Santa Fe S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/02/1996</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Oleoducto San Vicente-Temuco</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>850000</v>
+        <v>47000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>19/05/1997</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,43 +6328,139 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Forestal e Industrial Santa Fe S.A.</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>26/02/1996</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>Construcción de un Depósito de Lodos de Plantas Tratamientos de la Planta Papelera Inforsa S.A.</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>CMPC Pulp SpA</t>
         </is>
       </c>
-      <c r="F125" t="n">
+      <c r="F127" t="n">
         <v>2500</v>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>21/08/1995</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1000&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>Nacimiento</t>
         </is>

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Nacimiento y Reconfiguración de las Conexiones del Nodo Nacimiento 220 kV</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/08/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159853739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Nacimiento y Reconfiguración de las Conexiones del Nodo Nacimiento 220 kV</t>
+          <t>Nueva S/E Seccionadora Nacimiento y Reconfiguración de las Conexiones del Nodo Nacimiento 220 kV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>José Ignacio Soza De La Carrera</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159836911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159853739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Planta Oxígeno</t>
+          <t>Nueva Subestación Seccionadora Nacimiento y Reconfiguración de las Conexiones del Nodo Nacimiento 220 kV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Linde Gas Chile S.A.</t>
+          <t>José Ignacio Soza De La Carrera</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9083</v>
+        <v>6600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159452036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159836911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,30 +568,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico El Almendro</t>
+          <t>Ampliación Planta Oxígeno</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bioenergias Forestales SpA</t>
+          <t>Linde Gas Chile S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>160000</v>
+        <v>9083</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159452036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
+          <t>Parque Eólico El Almendro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Forestal Collicura Ltda</t>
+          <t>Bioenergias Forestales SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>250</v>
+        <v>160000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
+          <t>Tranque Acumulación Aguas LLuvia Las Corrientes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153177230&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma</t>
+          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar Gamma SpA</t>
+          <t>Forestal Collicura Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10227</v>
+        <v>250</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152920798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Solar Gamma</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Parque Solar Gamma SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9903</v>
+        <v>10227</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151785307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Incremento de generación de vapor en planta Santa Fe</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Incremento de generación de vapor en planta Santa Fe</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>120000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>02/07/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130552859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, fundo Tralpenes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>18/06/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8265115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Optimización Operacional de Planta Santa Fe - Línea 2 (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>377</v>
+        <v>130000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>17/11/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4193511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>120000</v>
+        <v>377</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>04/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Eficiencia Energética con Incremento de Generación Eléctrica en Planta Santa Fe (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>22</v>
+        <v>120000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>04/08/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3945696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>27/09/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2408724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cierre de Vertedero Interno (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>Cierre de Vertedero Interno (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1505257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Linde Gas Chile S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>PLANTA PRODUCTORA DE OXIGENO EN FORMA LIQUIDA Y GASEOSA DISTRIBUCION DE GASES DEL AIRE AGA S.A. PLANTA PRODUCTORA DE OXIGENO NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Linde Gas Chile S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3517</v>
+        <v>12000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1151586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lavador de Gases Inforsa (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Lavador de Gases Inforsa (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=594692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4350</v>
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>24/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
+          <t>Planta de Tratamiento Secundario, Residuos Industriales Líquidos INFORSA (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CMPC Maderas SpA</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>18000</v>
+        <v>4350</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>24/09/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Ampliación Secado Planta Nacimiento, CMPC Maderas S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>CMPC Maderas SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=447683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>109</v>
+        <v>2030</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>29/07/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=411619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>"Extracción de áridos. Sector Las Nieves. Octava Región" (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Nacimiento</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL DE NACIMIENTO (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Ilustre Municipalidad de Nacimiento</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>04/12/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=218357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Ampliación Planta Santa Fe</t>
+          <t>Extraccion Mecanizada de Aridos Fundo Tralpenes (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>600000</v>
+        <v>1200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/09/2003</t>
+          <t>04/12/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=215534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,30 +5704,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto Ampliación Planta Santa Fe</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>600000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>30/09/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Cambio de Trazado Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5915,11 +5915,11 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>03/06/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
+          <t>Manejo y Tratamiento de Aguas Servidas Planta Inforsa</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>03/06/2002</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
+          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,11 +6107,11 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
+          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Tecnocerámica S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Explotación de Silicatos de Alúminas Pertenencia Minera Mila Este</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Tecnocerámica S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1010</v>
+        <v>2500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>22/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,30 +6280,30 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Construcción Tratamiento de Agua Potable de Nacimiento</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>47000</v>
+        <v>1010</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
+          <t>Oleoducto San Vicente-Temuco</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Forestal e Industrial Santa Fe S.A.</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>47000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/02/1996</t>
+          <t>19/05/1997</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Construcción Vertedero Residuos Sólidos Santa Fé</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Forestal e Industrial Santa Fe S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>850000</v>
+        <v>1000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>26/02/1996</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,43 +6424,91 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>Construcción de un Depósito de Lodos de Plantas Tratamientos de la Planta Papelera Inforsa S.A.</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Octava</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>CMPC Pulp SpA</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="F128" t="n">
         <v>2500</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>21/08/1995</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1000&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>Nacimiento</t>
         </is>

--- a/data/Nacimiento.xlsx
+++ b/data/Nacimiento.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
